--- a/sm_core/Excel_Files/update_contacts.xlsx
+++ b/sm_core/Excel_Files/update_contacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sm-core\sm_core\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5016E6-90AE-4D3D-B85B-094C7CD10649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1927BBE-68C0-42E6-88E5-7B84DDAA23E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34050" yWindow="2955" windowWidth="21600" windowHeight="11385" xr2:uid="{3386556E-BEB8-483B-8B20-7182E0F5941D}"/>
+    <workbookView xWindow="58260" yWindow="2775" windowWidth="21600" windowHeight="11385" xr2:uid="{3386556E-BEB8-483B-8B20-7182E0F5941D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +71,19 @@
       <color rgb="FF56585B"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -115,19 +128,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{2D39CF25-2E93-4A45-9A62-D834E7CA2882}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F217E5-AB95-4581-A2D9-194B1DD41670}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B1048576"/>
@@ -452,215 +467,840 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="3"/>
     </row>
     <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="3"/>
     </row>
     <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="3"/>
     </row>
     <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="3"/>
     </row>
     <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="3"/>
     </row>
     <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="3"/>
     </row>
     <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="3"/>
     </row>
     <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="3"/>
     </row>
     <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="3"/>
     </row>
     <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="3"/>
     </row>
     <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="3"/>
     </row>
     <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="3"/>
     </row>
     <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="3"/>
     </row>
     <row r="48" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="3"/>
     </row>
     <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="3"/>
     </row>
     <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="3"/>
     </row>
     <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="3"/>
     </row>
     <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="3"/>
     </row>
     <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="3"/>
     </row>
     <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="3"/>
     </row>
     <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="3"/>
     </row>
     <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" s="3"/>
     </row>
     <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="3"/>
     </row>
     <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="3"/>
     </row>
     <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="3"/>
     </row>
     <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="3"/>
     </row>
     <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="3"/>
     </row>
     <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="3"/>
     </row>
     <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="3"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="3"/>
     </row>
     <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="3"/>
     </row>
     <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="3"/>
     </row>
     <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+    </row>
+    <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+    </row>
+    <row r="96" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+    </row>
+    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+    </row>
+    <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="99" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+    </row>
+    <row r="101" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+    </row>
+    <row r="102" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+    </row>
+    <row r="103" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+    </row>
+    <row r="104" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+    </row>
+    <row r="105" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+    </row>
+    <row r="107" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+    </row>
+    <row r="108" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
+    </row>
+    <row r="109" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
+    </row>
+    <row r="110" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="3"/>
+    </row>
+    <row r="112" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
+    </row>
+    <row r="113" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+    </row>
+    <row r="114" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+    </row>
+    <row r="115" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="3"/>
+    </row>
+    <row r="116" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+    </row>
+    <row r="117" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+    </row>
+    <row r="118" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+    </row>
+    <row r="119" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+    </row>
+    <row r="120" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+    </row>
+    <row r="121" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+    </row>
+    <row r="122" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+    </row>
+    <row r="123" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+    </row>
+    <row r="124" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+    </row>
+    <row r="125" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+    </row>
+    <row r="126" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+    </row>
+    <row r="127" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="128" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+    </row>
+    <row r="129" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+    </row>
+    <row r="130" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+    </row>
+    <row r="131" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+    </row>
+    <row r="132" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+    </row>
+    <row r="133" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+    </row>
+    <row r="134" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="135" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+    </row>
+    <row r="136" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
+    </row>
+    <row r="138" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+    </row>
+    <row r="139" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+    </row>
+    <row r="140" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+    </row>
+    <row r="141" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+    </row>
+    <row r="142" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+    </row>
+    <row r="143" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+    </row>
+    <row r="144" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+    </row>
+    <row r="145" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+    </row>
+    <row r="146" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+    </row>
+    <row r="147" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+    </row>
+    <row r="148" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+    </row>
+    <row r="151" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="152" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+    </row>
+    <row r="153" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+    </row>
+    <row r="154" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+    </row>
+    <row r="155" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+    </row>
+    <row r="156" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+    </row>
+    <row r="157" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+    </row>
+    <row r="158" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+    </row>
+    <row r="159" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+    </row>
+    <row r="160" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+    </row>
+    <row r="161" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+    </row>
+    <row r="162" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+    </row>
+    <row r="163" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+    </row>
+    <row r="164" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
+    </row>
+    <row r="165" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+    </row>
+    <row r="166" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+    </row>
+    <row r="167" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+    </row>
+    <row r="168" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
+    </row>
+    <row r="169" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+    </row>
+    <row r="170" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+    </row>
+    <row r="171" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+    </row>
+    <row r="172" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+    </row>
+    <row r="173" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
+    </row>
+    <row r="174" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="3"/>
+    </row>
+    <row r="175" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+    </row>
+    <row r="176" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
+    </row>
+    <row r="177" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="3"/>
+    </row>
+    <row r="178" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
+    </row>
+    <row r="179" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="3"/>
+    </row>
+    <row r="180" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="3"/>
+    </row>
+    <row r="181" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
+    </row>
+    <row r="182" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
+    </row>
+    <row r="183" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="3"/>
+    </row>
+    <row r="184" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+    </row>
+    <row r="185" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="3"/>
+    </row>
+    <row r="186" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="3"/>
+    </row>
+    <row r="187" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="3"/>
+    </row>
+    <row r="188" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
+    </row>
+    <row r="189" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="3"/>
+    </row>
+    <row r="190" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+    </row>
+    <row r="191" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="3"/>
+    </row>
+    <row r="192" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="3"/>
+    </row>
+    <row r="193" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="3"/>
+    </row>
+    <row r="194" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="3"/>
+    </row>
+    <row r="195" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="3"/>
+    </row>
+    <row r="196" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="3"/>
+    </row>
+    <row r="197" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="3"/>
+    </row>
+    <row r="198" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="3"/>
+    </row>
+    <row r="199" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="3"/>
+    </row>
+    <row r="200" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="3"/>
+    </row>
+    <row r="201" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="3"/>
+    </row>
+    <row r="202" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="3"/>
+    </row>
+    <row r="203" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="3"/>
+    </row>
+    <row r="204" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="3"/>
+    </row>
+    <row r="205" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="3"/>
+    </row>
+    <row r="206" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="3"/>
+    </row>
+    <row r="207" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="3"/>
+    </row>
+    <row r="208" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="3"/>
+    </row>
+    <row r="209" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="3"/>
+    </row>
+    <row r="210" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="3"/>
+    </row>
+    <row r="211" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="3"/>
+    </row>
+    <row r="212" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="3"/>
+    </row>
+    <row r="213" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="3"/>
+    </row>
+    <row r="214" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="3"/>
+    </row>
+    <row r="215" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="3"/>
+    </row>
+    <row r="216" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="3"/>
+    </row>
+    <row r="217" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="3"/>
+    </row>
+    <row r="218" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="3"/>
+    </row>
+    <row r="219" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="3"/>
+    </row>
+    <row r="220" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="3"/>
+    </row>
+    <row r="221" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="3"/>
+    </row>
+    <row r="222" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="3"/>
+    </row>
+    <row r="223" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="3"/>
+    </row>
+    <row r="224" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="3"/>
+    </row>
+    <row r="225" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="3"/>
+    </row>
+    <row r="226" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="3"/>
+    </row>
+    <row r="227" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="3"/>
+    </row>
+    <row r="228" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="3"/>
+    </row>
+    <row r="229" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="3"/>
+    </row>
+    <row r="230" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="3"/>
+    </row>
+    <row r="231" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="3"/>
+    </row>
+    <row r="232" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="3"/>
+    </row>
+    <row r="233" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="3"/>
+    </row>
+    <row r="234" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="3"/>
+    </row>
+    <row r="235" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="3"/>
+    </row>
+    <row r="236" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="3"/>
+    </row>
+    <row r="237" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="3"/>
+    </row>
+    <row r="238" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="3"/>
+    </row>
+    <row r="239" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="3"/>
+    </row>
+    <row r="240" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="3"/>
+    </row>
+    <row r="241" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="3"/>
+    </row>
+    <row r="242" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="3"/>
+    </row>
+    <row r="243" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="3"/>
+    </row>
+    <row r="244" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="3"/>
+    </row>
+    <row r="245" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="3"/>
+    </row>
+    <row r="246" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="3"/>
+    </row>
+    <row r="247" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A247" s="3"/>
+    </row>
+    <row r="248" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="3"/>
+    </row>
+    <row r="249" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A249" s="3"/>
+    </row>
+    <row r="250" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="3"/>
+    </row>
+    <row r="251" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="3"/>
+    </row>
+    <row r="252" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="3"/>
+    </row>
+    <row r="253" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="3"/>
+    </row>
+    <row r="254" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="3"/>
+    </row>
+    <row r="255" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="3"/>
+    </row>
+    <row r="256" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="3"/>
+    </row>
+    <row r="257" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="3"/>
+    </row>
+    <row r="258" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A258" s="3"/>
+    </row>
+    <row r="259" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="3"/>
+    </row>
+    <row r="260" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A260" s="3"/>
+    </row>
+    <row r="261" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A261" s="3"/>
+    </row>
+    <row r="262" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="3"/>
+    </row>
+    <row r="263" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A263" s="3"/>
+    </row>
+    <row r="264" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="3"/>
+    </row>
+    <row r="265" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A265" s="3"/>
+    </row>
+    <row r="266" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A266" s="3"/>
+    </row>
+    <row r="267" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A267" s="3"/>
+    </row>
+    <row r="268" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A268" s="3"/>
+    </row>
+    <row r="269" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A269" s="3"/>
+    </row>
+    <row r="270" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A270" s="3"/>
+    </row>
+    <row r="271" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A271" s="3"/>
+    </row>
+    <row r="272" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A272" s="3"/>
+    </row>
+    <row r="273" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="3"/>
+    </row>
+    <row r="274" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A274" s="3"/>
+    </row>
+    <row r="275" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="3"/>
+    </row>
+    <row r="276" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
